--- a/checklists/Интеграционное тестирование.xlsx
+++ b/checklists/Интеграционное тестирование.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\003QA\Чеклисты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frAk1R\git\QA\checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9595274F-09D3-4608-A210-DCEC13011627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ECD29E-308F-47D2-A684-911675DA2104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27735" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,11 +129,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,95 +475,124 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="110.42578125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="112.42578125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B12">
     <sortCondition ref="B5:B12"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
